--- a/CASUAL/LA CHO/DEL MUNDO, JONAS.xlsx
+++ b/CASUAL/LA CHO/DEL MUNDO, JONAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>UT(0-5-3)</t>
+  </si>
+  <si>
+    <t>10/10,11/2023</t>
   </si>
 </sst>
 </file>
@@ -3021,10 +3024,10 @@
   </sheetPr>
   <dimension ref="A2:K142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A59" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3188,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>42.14200000000001</v>
+        <v>44.64200000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3195,7 +3198,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>63.75</v>
+        <v>64.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4955,13 +4958,15 @@
       <c r="B91" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39">
         <v>1</v>
@@ -4973,15 +4978,19 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45170</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -4989,8 +4998,12 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
@@ -4999,13 +5012,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="39"/>
+      <c r="H93" s="39">
+        <v>2</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45231</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5835,10 +5854,10 @@
   </sheetPr>
   <dimension ref="A2:K86"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7533,7 +7552,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>105.89200000000001</v>
+        <v>108.89200000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
